--- a/ML_PU2/Z1.xlsx
+++ b/ML_PU2/Z1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Proyectos\Calidad_Bombardier\ML_PU2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0612544\Documents\Projects\Quality\ShinyDashboards\RNC_Dashboard\ML_PU2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD8DAA-716D-4C55-AB67-9143481123AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136DC8D-59FA-4183-981A-071B399DE27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1380FDC6-C21F-4C2A-8D54-19E54C0A5217}"/>
+    <workbookView xWindow="30825" yWindow="2190" windowWidth="21600" windowHeight="11400" xr2:uid="{1380FDC6-C21F-4C2A-8D54-19E54C0A5217}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
-  <si>
-    <t>NCR #</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Issue</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Q321000213-1</t>
   </si>
   <si>
@@ -126,9 +119,6 @@
     <t>Q321012397-1</t>
   </si>
   <si>
-    <t>Disc</t>
-  </si>
-  <si>
     <t>METHODS* M_`BL EXISTS QTY. (2) OVER GAP BETWEEN BUSHING NAS1057T3A_`062 &amp; GUARD PIN BRACKET, FWD.(GD417_`1504_`1) AND BUSHING NAS1057T3A_`062 &amp; GUARD PIN BRACKET, R/FUSE AFT GD417_`1502_`1 DETAILS AS FOLLOWS: SHOULD BE MAX 0.0625". GAP MEASURES #1 0.110" (FWD) #2 0.088" (AFT) ALL COMPONENT ARE INSTALLED WITH CLECO PLAYER WAS PLACE TEMPORARY SHIM DUMMY PART TAPER 0.030" FOR PART GD417_`1502_`1 AND TAPER 0.030" FOR PART GD417_`1508_`1 IN ORDER TO ACHIVE THE GAP REQUIRED GD417_`1502_`1 TAPER 0.010" TO 0.030", LENGTH IS 1.600, WIDTH IS 1.300" GD417_`1508_`1 TAPER 0.010" TO 0.030", LENGTH IS 1.800", WIDTH IS 0.500" IN 2 PLACES ACTUAL GAP WITH DUMMY SHIM IS #1 0.051" (FWD) #2 0.053" (AFT) AS PER BAPS 164_`001 CALLS FOR 0.010" TO HALF OF NOMINAL CABLE DIA. (CABLE GC413_`0012_`23 Ã IS 1/8" OR 0.125") REFER TO NCR D119024529_`002/Q319023140 FOR SIMILAR CONDITION SEE ATTACHMENTS FOR REFERENCE</t>
   </si>
   <si>
@@ -199,6 +189,12 @@
   </si>
   <si>
     <t>METHODS* REF. RNC Q321010306 REAR SPAR, HINGE 1 TO HINGE 4 SPAR ASSY, REAR (GD242_`3101_`1) HINGE 1 (GD248_`5100_`7_`01) HINGE 2 (GD248_`5200_`5_`01) HINGE 3 (GD248_`5300_`5_`01) HINGE 4 (GD248_`5400_`5_`01)) SHIM S10249_`40_`171_`211D38 (FOR HINGE 1) SHIM S10249_`40_`291_`434D63 (FOR HINGE 2) SHIM S10249_`40_`225_`261D50 (FOR HINGE 3) SHIM S10249_`40_`171_`246D38 (FOR HINGE 4) AT REAR SPAR A DEVIATION IS NOTED AT LOCAL AXIS CENTER LINE OF HINGES. ACCORDING TO LASER SHOOTING DEVIATION IS: DISTANCE 2: 0.0087â BTW HINGES AND REAR SPAR A SHIM IS ISTALLED AS FOLLOW: FOR HINGE 1 AT L/H SHIM INSTALLED THK 0.020â AT R/H SHIM INSTALLED THK 0.020â FOR HINGE 2 AT L/H SHIM INSTALLED THK 0.020â AT R/H SHIM INSTALLED THK 0.020â FOR HINGE 3 AT L/H SHIM INSTALLED THK 0.020â AT R/H SHIM INSTALLED THK 0.020â FOR HINGE 4 AT L/H SHIM INSTALLED THK 0.036" AT R/H SHIM INSTALLED THK 0.020â REFER TO ATTACHMENTS FOR DIMENSIONAL REPORT.</t>
+  </si>
+  <si>
+    <t>RNC</t>
+  </si>
+  <si>
+    <t>Discrepancy_Text</t>
   </si>
 </sst>
 </file>
@@ -591,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5749F5-C68C-42CC-9162-BAF32AA61DBC}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,389 +598,308 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>87</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>87</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>38</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>64</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>64</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>64</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>64</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C27" xr:uid="{6E5749F5-C68C-42CC-9162-BAF32AA61DBC}"/>
+  <autoFilter ref="A1:B27" xr:uid="{6E5749F5-C68C-42CC-9162-BAF32AA61DBC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>